--- a/OtherFiles/Tables/ExtractedTextTable.xlsx
+++ b/OtherFiles/Tables/ExtractedTextTable.xlsx
@@ -127,7 +127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -154,6 +154,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,7 +519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
@@ -538,29 +541,25 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" s="6">
-      <c r="A2" s="8" t="inlineStr">
+      <c r="A2" s="10" t="inlineStr">
         <is>
-          <t>OtherFiles/_FilesFolder//test.txt</t>
+          <t>OtherFiles/_FilesFolder/\test.txt</t>
+        </is>
+      </c>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" s="6">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Hello "there"
-what are </t>
+          <t>you talking</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="14.45" customHeight="1" s="6">
-      <c r="A4" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> about?!
-</t>
-        </is>
-      </c>
-    </row>
+    <row r="4" ht="14.45" customHeight="1" s="6"/>
     <row r="5" ht="14.45" customHeight="1" s="6"/>
     <row r="6" ht="14.45" customHeight="1" s="6"/>
     <row r="7" ht="14.45" customHeight="1" s="6"/>
